--- a/Released/BOM/H1BR61_BOM..xlsx
+++ b/Released/BOM/H1BR61_BOM..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEXABITZ\Checking Hardware\final modules\H1BR61_Hardware\H1BR61\Released\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\OneDrive\Documents\H1BR6x-Hardware\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3547226-7469-4E17-B508-375C508D4AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815A8BBF-05E1-4FB3-994E-0ACEF63DFB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H1BR61" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>Qty</t>
   </si>
@@ -259,9 +259,6 @@
     <t>https://octopart.com/crcw060310k0jneb-vishay-46603269</t>
   </si>
   <si>
-    <t>Quantity in storage</t>
-  </si>
-  <si>
     <t>PINHD-1X3</t>
   </si>
   <si>
@@ -281,22 +278,13 @@
   </si>
   <si>
     <t>PCB Header, Unshrouded, Thru 02 Straight Header, .101, AMPMODU Mod II Series</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Frontend</t>
-  </si>
-  <si>
-    <t>Backend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,21 +444,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -660,12 +633,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -795,26 +768,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -861,7 +814,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -889,37 +842,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1276,26 +1208,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="116.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="116.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1317,43 +1247,31 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>87</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="14">
-        <v>5</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1375,11 +1293,8 @@
       <c r="G3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1387,10 +1302,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>24</v>
@@ -1401,38 +1316,31 @@
       <c r="G4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="18" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1454,11 +1362,8 @@
       <c r="G6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1480,11 +1385,8 @@
       <c r="G7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="18" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1506,11 +1408,8 @@
       <c r="G8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1532,11 +1431,8 @@
       <c r="G9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1558,40 +1454,31 @@
       <c r="G10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="11" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>3</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="14">
-        <v>290</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -1613,11 +1500,8 @@
       <c r="G12" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1639,11 +1523,8 @@
       <c r="G13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1665,11 +1546,8 @@
       <c r="G14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>88</v>
-      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1690,9 +1568,6 @@
       </c>
       <c r="G15" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
